--- a/data/nzd0568/nzd0568.xlsx
+++ b/data/nzd0568/nzd0568.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F932"/>
+  <dimension ref="A1:F940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21953,6 +21953,196 @@
         <v>202.1</v>
       </c>
       <c r="F932" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>224.49</v>
+      </c>
+      <c r="C933" t="n">
+        <v>217.27</v>
+      </c>
+      <c r="D933" t="n">
+        <v>219.27</v>
+      </c>
+      <c r="E933" t="n">
+        <v>213.35</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>215.08</v>
+      </c>
+      <c r="C934" t="n">
+        <v>213.77</v>
+      </c>
+      <c r="D934" t="n">
+        <v>216.66</v>
+      </c>
+      <c r="E934" t="n">
+        <v>202.82</v>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>220.27</v>
+      </c>
+      <c r="C935" t="n">
+        <v>220.93</v>
+      </c>
+      <c r="D935" t="n">
+        <v>216.6</v>
+      </c>
+      <c r="E935" t="n">
+        <v>211.56</v>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:07:29+00:00</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>218.29</v>
+      </c>
+      <c r="C936" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D936" t="n">
+        <v>217.3</v>
+      </c>
+      <c r="E936" t="n">
+        <v>214.18</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:22+00:00</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>218.06</v>
+      </c>
+      <c r="C937" t="n">
+        <v>218.09</v>
+      </c>
+      <c r="D937" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="E937" t="n">
+        <v>194.73</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>222.85</v>
+      </c>
+      <c r="C938" t="n">
+        <v>216.36</v>
+      </c>
+      <c r="D938" t="n">
+        <v>217.27</v>
+      </c>
+      <c r="E938" t="n">
+        <v>204.67</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:07:36+00:00</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>219.09</v>
+      </c>
+      <c r="C939" t="n">
+        <v>217.58</v>
+      </c>
+      <c r="D939" t="n">
+        <v>216.05</v>
+      </c>
+      <c r="E939" t="n">
+        <v>211.59</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>212.16</v>
+      </c>
+      <c r="C940" t="n">
+        <v>221.75</v>
+      </c>
+      <c r="D940" t="n">
+        <v>210.27</v>
+      </c>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21969,7 +22159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1060"/>
+  <dimension ref="A1:B1068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32577,6 +32767,86 @@
       </c>
       <c r="B1060" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -32738,34 +33008,34 @@
         <v>0.175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1627</v>
+        <v>0.1634</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1917</v>
+        <v>0.1926</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1737015302983867</v>
+        <v>0.1741317252850351</v>
       </c>
       <c r="J2" t="n">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="K2" t="n">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02607017986072213</v>
+        <v>0.02666961696986125</v>
       </c>
       <c r="M2" t="n">
-        <v>6.21950604189955</v>
+        <v>6.186613448578162</v>
       </c>
       <c r="N2" t="n">
-        <v>62.27626218760432</v>
+        <v>61.80217795180998</v>
       </c>
       <c r="O2" t="n">
-        <v>7.891531042047818</v>
+        <v>7.861436125276983</v>
       </c>
       <c r="P2" t="n">
-        <v>213.9757564886079</v>
+        <v>213.9713551610408</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32810,34 +33080,34 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1824</v>
+        <v>0.1829</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1378445860469128</v>
+        <v>0.1297722034815958</v>
       </c>
       <c r="J3" t="n">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="K3" t="n">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0200624208470036</v>
+        <v>0.01809437275753578</v>
       </c>
       <c r="M3" t="n">
-        <v>5.749152180926499</v>
+        <v>5.740291364371903</v>
       </c>
       <c r="N3" t="n">
-        <v>51.5383457759986</v>
+        <v>51.30416244828618</v>
       </c>
       <c r="O3" t="n">
-        <v>7.179021226880347</v>
+        <v>7.162692402182728</v>
       </c>
       <c r="P3" t="n">
-        <v>219.3424031488462</v>
+        <v>219.4254623502666</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32882,34 +33152,34 @@
         <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.183</v>
+        <v>0.1831</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1256135365177511</v>
+        <v>0.1098121948697894</v>
       </c>
       <c r="J4" t="n">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="K4" t="n">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01664360773902895</v>
+        <v>0.01284574853402098</v>
       </c>
       <c r="M4" t="n">
-        <v>5.885443548605154</v>
+        <v>5.91668602672245</v>
       </c>
       <c r="N4" t="n">
-        <v>53.15053820630262</v>
+        <v>53.41286724930063</v>
       </c>
       <c r="O4" t="n">
-        <v>7.290441564562644</v>
+        <v>7.308410719800895</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7332411369023</v>
+        <v>221.8919664086884</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32954,34 +33224,34 @@
         <v>0.18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1672</v>
+        <v>0.1647</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1949</v>
+        <v>0.1926</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03956545898518195</v>
+        <v>0.02285285439646959</v>
       </c>
       <c r="J5" t="n">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001573952287007852</v>
+        <v>0.0005239977946842611</v>
       </c>
       <c r="M5" t="n">
-        <v>5.714371424524134</v>
+        <v>5.757450494230583</v>
       </c>
       <c r="N5" t="n">
-        <v>55.25880623427314</v>
+        <v>55.98878566073576</v>
       </c>
       <c r="O5" t="n">
-        <v>7.433626721478094</v>
+        <v>7.482565446471936</v>
       </c>
       <c r="P5" t="n">
-        <v>216.4402693537551</v>
+        <v>216.6119081432525</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33019,7 +33289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F932"/>
+  <dimension ref="A1:F940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61143,6 +61413,258 @@
         </is>
       </c>
     </row>
+    <row r="933">
+      <c r="A933" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>-41.026852840666635,173.02005550303906</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>-41.026246228797284,173.01953463357142</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>-41.02560039973303,173.01911829710892</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>-41.02500512094612,173.0188197967291</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>-41.026892478518754,173.01995656056178</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>-41.026260971733016,173.01949783267276</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>-41.025611115506955,173.01909066318646</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>-41.02500511924914,173.01869454357848</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>-41.02687061663211,173.0200111314008</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>-41.026230811886165,173.0195731167793</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>-41.02561136184651,173.01909002792377</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>-41.025005120667245,173.01879850488302</t>
+        </is>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:07:29+00:00</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>-41.0268789570081,173.01999031247226</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>-41.02622251370735,173.01959383041108</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>-41.02560848788485,173.0190974393215</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>-41.02500512107408,173.01882966948457</t>
+        </is>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:22+00:00</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>-41.0268799258394,173.01998789411152</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>-41.02624277473635,173.01954325549386</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>-41.02561218297832,173.01908791038142</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>-41.02500511785293,173.0185983139499</t>
+        </is>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>-41.02685974886377,173.02003825908767</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>-41.026250061961704,173.01952506533934</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>-41.02560861105464,173.0190971216902</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>-41.025005119557136,173.01871654911776</t>
+        </is>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:07:36+00:00</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>-41.02687558715967,173.0199987241612</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>-41.02624492299383,173.0195378930788</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>-41.02561361995891,173.0190842046822</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>-41.025005120671956,173.0187988617296</t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>-41.026904778451296,173.01992585787733</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>-41.02622735782234,173.01958173869775</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>-41.025637350649546,173.01902300768324</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
